--- a/导表工具/G-公会活动--删除.xlsx
+++ b/导表工具/G-公会活动--删除.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="8055" tabRatio="801"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="活动配置" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>导出类型</t>
   </si>
@@ -152,11 +152,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -202,23 +202,94 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,16 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,44 +311,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,51 +324,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -384,187 +389,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,17 +626,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,15 +694,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -671,50 +702,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,151 +728,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1333,13 +1338,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="41.75" customWidth="1"/>
     <col min="4" max="4" width="40.625" customWidth="1"/>
@@ -1347,136 +1352,136 @@
     <col min="6" max="7" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>15</v>
+      <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
     </row>
